--- a/Excels/Actions.xlsx
+++ b/Excels/Actions.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>唯一标识</t>
   </si>
@@ -49,6 +49,12 @@
     <t>查找器参数</t>
   </si>
   <si>
+    <t>删选器</t>
+  </si>
+  <si>
+    <t>删选器参数</t>
+  </si>
+  <si>
     <t>公示计算器</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>FinderArgs</t>
   </si>
   <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>FiltersArgs</t>
+  </si>
+  <si>
     <t>Formulas</t>
   </si>
   <si>
@@ -124,13 +136,205 @@
     <t>足轻减伤</t>
   </si>
   <si>
-    <t>JCombatBeforeDamageTrigger</t>
+    <t>受到伤害-10</t>
+  </si>
+  <si>
+    <t>JCombatBeforeHurtTrigger</t>
   </si>
   <si>
     <t>JCombatFormulaDamageDataChange</t>
   </si>
   <si>
+    <t>1;10</t>
+  </si>
+  <si>
     <t>JCombatExecutorDamageDataChange</t>
+  </si>
+  <si>
+    <t>老练足轻</t>
+  </si>
+  <si>
+    <t>受到伤害-5%（首回合-15%）</t>
+  </si>
+  <si>
+    <t>JCombatFormulaTurnDamageDataChange</t>
+  </si>
+  <si>
+    <t>0;0.95;1;0.85</t>
+  </si>
+  <si>
+    <t>稚刀队</t>
+  </si>
+  <si>
+    <t>受到伤害-10%（首回合-25%）</t>
+  </si>
+  <si>
+    <t>亲卫队</t>
+  </si>
+  <si>
+    <t>受到伤害-15%（首回合-35%）</t>
+  </si>
+  <si>
+    <t>突击队</t>
+  </si>
+  <si>
+    <t>攻击力提升5%，速度增加20</t>
+  </si>
+  <si>
+    <t>神风队</t>
+  </si>
+  <si>
+    <t>攻击力提升10%，速度增加30</t>
+  </si>
+  <si>
+    <t>武士</t>
+  </si>
+  <si>
+    <t>伤害增加5%</t>
+  </si>
+  <si>
+    <t>高级武士</t>
+  </si>
+  <si>
+    <t>伤害增加10%</t>
+  </si>
+  <si>
+    <t>野太刀</t>
+  </si>
+  <si>
+    <t>伤害增加15%</t>
+  </si>
+  <si>
+    <t>剑客</t>
+  </si>
+  <si>
+    <t>可以队一行目标造成60%的伤害</t>
+  </si>
+  <si>
+    <t>大剑豪</t>
+  </si>
+  <si>
+    <t>可以队一行目标造成75%的伤害</t>
+  </si>
+  <si>
+    <t>骑兵队</t>
+  </si>
+  <si>
+    <t>第一回合伤害提升10%</t>
+  </si>
+  <si>
+    <t>母衣众</t>
+  </si>
+  <si>
+    <t>第一回合伤害提升15%，对远程部队伤害额外再提高10%</t>
+  </si>
+  <si>
+    <t>赤母衣</t>
+  </si>
+  <si>
+    <t>第一回合伤害提升25%，对远程部队伤害额外再提高20%</t>
+  </si>
+  <si>
+    <t>精锐赤备队</t>
+  </si>
+  <si>
+    <t>第一回合伤害提升35%，对远程部队伤害额外再提高30%</t>
+  </si>
+  <si>
+    <t>铁甲骑</t>
+  </si>
+  <si>
+    <t>减少15%范围攻击伤害</t>
+  </si>
+  <si>
+    <t>稚刀骑</t>
+  </si>
+  <si>
+    <t>减少25%范围攻击伤害</t>
+  </si>
+  <si>
+    <t>重装稚刀骑</t>
+  </si>
+  <si>
+    <t>减少35%范围攻击伤害</t>
+  </si>
+  <si>
+    <t>舶来铁骑</t>
+  </si>
+  <si>
+    <t>每回合攻击力提高3%（最大30%）</t>
+  </si>
+  <si>
+    <t>西洋重甲骑</t>
+  </si>
+  <si>
+    <t>每回合攻击力，防御力提高3%（最大30%）</t>
+  </si>
+  <si>
+    <t>弓箭队</t>
+  </si>
+  <si>
+    <t>可以同时对2个目标造成50%的伤害</t>
+  </si>
+  <si>
+    <t>长弓手</t>
+  </si>
+  <si>
+    <t>可以同时对2个目标造成55%的伤害</t>
+  </si>
+  <si>
+    <t>神射手</t>
+  </si>
+  <si>
+    <t>可以同时对3个目标造成50%的伤害</t>
+  </si>
+  <si>
+    <t>弓取</t>
+  </si>
+  <si>
+    <t>可以同时对3个目标造成55%的伤害</t>
+  </si>
+  <si>
+    <t>连弩手</t>
+  </si>
+  <si>
+    <t>可以对一列目标造成60%的伤害</t>
+  </si>
+  <si>
+    <t>京洛重弩</t>
+  </si>
+  <si>
+    <t>可以对一列目标造成75%的伤害</t>
+  </si>
+  <si>
+    <t>铁炮队</t>
+  </si>
+  <si>
+    <t>可以对目标所在行列所有目标造成40%的伤害</t>
+  </si>
+  <si>
+    <t>石火矢</t>
+  </si>
+  <si>
+    <t>对全体造成40%的伤害</t>
+  </si>
+  <si>
+    <t>加农铁炮</t>
+  </si>
+  <si>
+    <t>对全体造成45%的伤害</t>
+  </si>
+  <si>
+    <t>雨铁队</t>
+  </si>
+  <si>
+    <t>可以对目标所在行列所有目标造成50%的伤害</t>
+  </si>
+  <si>
+    <t>种子岛</t>
+  </si>
+  <si>
+    <t>可以对目标所在行列所有目标造成60%的伤害</t>
   </si>
 </sst>
 </file>
@@ -1067,28 +1271,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="49.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1098,113 +1303,149 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1212,22 +1453,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1235,19 +1477,490 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Actions.xlsx
+++ b/Excels/Actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>唯一标识</t>
   </si>
@@ -40,27 +40,15 @@
     <t>备注</t>
   </si>
   <si>
+    <t>备注说明</t>
+  </si>
+  <si>
     <t>触发器</t>
   </si>
   <si>
     <t>查找器</t>
   </si>
   <si>
-    <t>查找器参数</t>
-  </si>
-  <si>
-    <t>删选器</t>
-  </si>
-  <si>
-    <t>删选器参数</t>
-  </si>
-  <si>
-    <t>公示计算器</t>
-  </si>
-  <si>
-    <t>执行器参数</t>
-  </si>
-  <si>
     <t>执行器</t>
   </si>
   <si>
@@ -73,28 +61,13 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Triggers</t>
-  </si>
-  <si>
-    <t>Finder</t>
-  </si>
-  <si>
-    <t>FinderArgs</t>
-  </si>
-  <si>
-    <t>Filters</t>
-  </si>
-  <si>
-    <t>FiltersArgs</t>
-  </si>
-  <si>
-    <t>Formulas</t>
-  </si>
-  <si>
-    <t>FormulasArgs</t>
-  </si>
-  <si>
-    <t>Executors</t>
+    <t>TriggersUid</t>
+  </si>
+  <si>
+    <t>FinderUid</t>
+  </si>
+  <si>
+    <t>ExecutorsUid</t>
   </si>
   <si>
     <t>string</t>
@@ -103,12 +76,6 @@
     <t>string+</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>float++</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -124,43 +91,19 @@
     <t>足轻攻击</t>
   </si>
   <si>
-    <t>JCombatDefaultFinder</t>
-  </si>
-  <si>
-    <t>TiktokDamageFormula</t>
-  </si>
-  <si>
-    <t>JCombatExecutorDamage</t>
+    <t>普通攻击，找默认一个敌人造成公式的伤害</t>
   </si>
   <si>
     <t>足轻减伤</t>
   </si>
   <si>
-    <t>受到伤害-10</t>
-  </si>
-  <si>
-    <t>JCombatBeforeHurtTrigger</t>
-  </si>
-  <si>
-    <t>JCombatFormulaDamageDataChange</t>
-  </si>
-  <si>
-    <t>1;10</t>
-  </si>
-  <si>
-    <t>JCombatExecutorDamageDataChange</t>
+    <t>自己受到伤害-10</t>
   </si>
   <si>
     <t>老练足轻</t>
   </si>
   <si>
     <t>受到伤害-5%（首回合-15%）</t>
-  </si>
-  <si>
-    <t>JCombatFormulaTurnDamageDataChange</t>
-  </si>
-  <si>
-    <t>0;0.95;1;0.85</t>
   </si>
   <si>
     <t>稚刀队</t>
@@ -1271,13 +1214,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
@@ -1285,15 +1228,12 @@
     <col min="4" max="4" width="49.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="34.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1304,148 +1244,88 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1453,23 +1333,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1477,25 +1353,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1503,22 +1373,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1529,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1543,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1557,10 +1415,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1571,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1585,25 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1611,25 +1457,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1637,22 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.15</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1663,10 +1485,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1677,10 +1499,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1691,10 +1513,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1705,10 +1527,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1719,10 +1541,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1733,10 +1555,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1747,10 +1569,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1761,10 +1583,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1775,10 +1597,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1789,10 +1611,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1803,10 +1625,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1817,10 +1639,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1831,10 +1653,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1845,10 +1667,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1859,10 +1681,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1873,10 +1695,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1887,10 +1709,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1901,10 +1723,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1915,10 +1737,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1929,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1943,10 +1765,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1957,10 +1779,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Actions.xlsx
+++ b/Excels/Actions.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>唯一标识</t>
   </si>
@@ -124,10 +124,16 @@
     <t>攻击力提升5%，速度增加20</t>
   </si>
   <si>
+    <t>20;30</t>
+  </si>
+  <si>
     <t>神风队</t>
   </si>
   <si>
     <t>攻击力提升10%，速度增加30</t>
+  </si>
+  <si>
+    <t>21;31</t>
   </si>
   <si>
     <t>武士</t>
@@ -1217,7 +1223,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1362,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1378,8 +1384,14 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1392,8 +1404,14 @@
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1406,8 +1424,14 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1420,8 +1444,14 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1429,13 +1459,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1443,13 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1457,13 +1499,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1471,13 +1519,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1485,13 +1539,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1499,10 +1559,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1513,10 +1579,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1527,10 +1593,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1541,10 +1607,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1555,10 +1621,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1569,10 +1635,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1583,10 +1649,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1597,10 +1663,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1611,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1625,10 +1691,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1639,10 +1705,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1653,10 +1719,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1667,10 +1733,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1681,10 +1747,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1695,10 +1761,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1709,10 +1775,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1723,10 +1789,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1737,10 +1803,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1751,10 +1817,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1765,10 +1831,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1779,10 +1845,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Actions.xlsx
+++ b/Excels/Actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>唯一标识</t>
   </si>
@@ -52,6 +52,9 @@
     <t>执行器</t>
   </si>
   <si>
+    <t>角色动画名字</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>ExecutorsUid</t>
   </si>
   <si>
+    <t>AnimationName</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -88,13 +94,16 @@
     <t>server</t>
   </si>
   <si>
-    <t>足轻攻击</t>
+    <t>攻击</t>
   </si>
   <si>
     <t>普通攻击，找默认一个敌人造成公式的伤害</t>
   </si>
   <si>
-    <t>足轻减伤</t>
+    <t>PVP_Atk</t>
+  </si>
+  <si>
+    <t>足轻</t>
   </si>
   <si>
     <t>自己受到伤害-10</t>
@@ -1220,13 +1229,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
@@ -1239,7 +1248,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1261,94 +1270,109 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1356,13 +1380,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1376,13 +1400,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1396,13 +1420,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1416,13 +1440,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1436,19 +1460,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1456,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1476,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1496,13 +1520,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1516,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1536,13 +1560,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -1556,13 +1580,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -1576,13 +1600,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1590,13 +1614,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1604,13 +1628,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1618,13 +1642,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1632,13 +1656,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1646,13 +1670,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1660,13 +1684,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1674,13 +1698,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1688,13 +1712,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1702,13 +1726,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1716,13 +1740,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1730,13 +1754,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1744,13 +1768,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1758,13 +1782,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1772,13 +1796,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1786,13 +1810,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1800,13 +1824,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1814,13 +1838,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1828,13 +1852,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="1">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1842,13 +1866,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
